--- a/data/trans_bre/P13_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 4,4</t>
+          <t>-1,98; 4,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 3,29</t>
+          <t>-2,43; 3,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 3,9</t>
+          <t>-2,18; 3,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 1,29</t>
+          <t>-3,34; 1,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-42,56; 146,25</t>
+          <t>-37,49; 145,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-50,92; 140,48</t>
+          <t>-51,98; 136,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-45,31; 173,72</t>
+          <t>-48,87; 171,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-53,3; 42,44</t>
+          <t>-57,43; 39,34</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,43</t>
+          <t>-1,04; 3,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 5,61</t>
+          <t>-1,51; 5,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 1,77</t>
+          <t>-3,22; 1,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 3,41</t>
+          <t>-1,43; 3,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-55,99; 751,64</t>
+          <t>-64,34; 726,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 214,83</t>
+          <t>-30,85; 196,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-73,54; 117,82</t>
+          <t>-74,28; 105,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 147,95</t>
+          <t>-31,3; 137,97</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,96; 10,49</t>
+          <t>1,82; 11,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 8,46</t>
+          <t>-0,18; 7,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 11,2</t>
+          <t>0,69; 10,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 13,42</t>
+          <t>3,6; 13,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>63,66; 952,28</t>
+          <t>44,94; 834,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 201,05</t>
+          <t>-6,0; 183,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 367,39</t>
+          <t>3,88; 363,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>62,26; 1053,72</t>
+          <t>57,25; 926,26</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 3,31</t>
+          <t>-0,64; 3,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 5,36</t>
+          <t>0,15; 5,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,93</t>
+          <t>1,0; 5,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 0,7</t>
+          <t>-4,34; 0,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,9; 114,88</t>
+          <t>-14,87; 116,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 126,41</t>
+          <t>1,9; 128,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>19,01; 184,63</t>
+          <t>20,25; 188,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,81; 10,83</t>
+          <t>-61,11; 15,15</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,87</t>
+          <t>-4,07; 1,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,59; 11,4</t>
+          <t>5,73; 11,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 3,91</t>
+          <t>-0,88; 4,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 4,55</t>
+          <t>-2,45; 4,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-56,12; 61,96</t>
+          <t>-56,2; 60,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>108,08; 464,64</t>
+          <t>95,35; 455,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 99,71</t>
+          <t>-15,35; 103,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,96; 81,9</t>
+          <t>-25,38; 72,53</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,97</t>
+          <t>0,11; 4,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 9,56</t>
+          <t>2,24; 9,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,59</t>
+          <t>3,0; 6,5</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,63; 9,26</t>
+          <t>4,81; 9,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 451,94</t>
+          <t>-2,36; 409,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>30,15; 377,97</t>
+          <t>24,22; 343,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>147,31; —</t>
+          <t>134,42; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>104,1; 1213,37</t>
+          <t>131,56; 1455,34</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,66</t>
+          <t>0,65; 2,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,97</t>
+          <t>3,4; 5,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,12</t>
+          <t>1,07; 3,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,49; 3,18</t>
+          <t>0,48; 3,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,17; 96,77</t>
+          <t>17,51; 97,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>63,91; 144,23</t>
+          <t>62,92; 143,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,93; 102,63</t>
+          <t>26,6; 107,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,92; 78,82</t>
+          <t>9,7; 82,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P13_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
